--- a/Application/RequestsMax.xlsx
+++ b/Application/RequestsMax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leddig\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09AE2C-617E-434A-B60E-F01B88B255A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBC4C3-C105-46AA-A98F-AAD106AD48F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5672F3A5-9886-4B8E-B601-D0CDD30B1015}"/>
+    <workbookView xWindow="4470" yWindow="0" windowWidth="12780" windowHeight="10920" xr2:uid="{5672F3A5-9886-4B8E-B601-D0CDD30B1015}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Request ID</t>
-  </si>
-  <si>
-    <t>Revenue</t>
   </si>
   <si>
     <t>Request 1</t>
@@ -437,14 +434,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F1" sqref="F1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3">
         <v>-21.43</v>
@@ -458,24 +455,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>64.59</v>
@@ -489,13 +484,11 @@
       <c r="E3" s="3">
         <v>49.37</v>
       </c>
-      <c r="F3" s="4">
-        <v>82.79</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>-98.84</v>
@@ -509,13 +502,11 @@
       <c r="E4" s="3">
         <v>58.8</v>
       </c>
-      <c r="F4" s="4">
-        <v>68.42</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>-61.46</v>
@@ -529,13 +520,11 @@
       <c r="E5" s="3">
         <v>28.17</v>
       </c>
-      <c r="F5" s="4">
-        <v>95.72</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>24.95</v>
@@ -549,9 +538,7 @@
       <c r="E6" s="3">
         <v>90.26</v>
       </c>
-      <c r="F6" s="4">
-        <v>61.94</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
